--- a/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
@@ -20,30 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">codes for  only Gc</t>
   </si>
   <si>
-    <t xml:space="preserve">RIMWCZFAQHRRGPGO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDYHRJYOZFRIKDDT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSYTLQMVLSJJYHRP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTLSMRSOFPWDKWKQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QPVFHTAVILQYJRJD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDHVRQCPJCFMFFAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPQKTWFWSTPIOQOO </t>
+    <t xml:space="preserve">QZDJTDTYQJWAZOLT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISWGFHJZJRDMTCIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLOIWCSCSCTVGYIF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLOSJSFZIWFDZFIY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYZDFYGCKVAIYRDI </t>
   </si>
 </sst>
 </file>
@@ -234,7 +228,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,44 +248,36 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
